--- a/data/trans_orig/dukeAFECT-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/dukeAFECT-Estudios-trans_orig.xlsx
@@ -671,7 +671,7 @@
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>16,56</t>
+          <t>16,66</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
@@ -691,7 +691,7 @@
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>16,32</t>
+          <t>16,4</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
@@ -711,7 +711,7 @@
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>16,42</t>
+          <t>16,51</t>
         </is>
       </c>
     </row>
@@ -739,7 +739,7 @@
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>16,25; 16,84</t>
+          <t>16,35; 16,93</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -759,7 +759,7 @@
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>16,1; 16,53</t>
+          <t>16,18; 16,6</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
@@ -779,7 +779,7 @@
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>16,24; 16,59</t>
+          <t>16,32; 16,67</t>
         </is>
       </c>
     </row>
@@ -811,7 +811,7 @@
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>17,66</t>
+          <t>17,95</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -831,7 +831,7 @@
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>17,42</t>
+          <t>17,44</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
@@ -851,7 +851,7 @@
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>17,54</t>
+          <t>17,7</t>
         </is>
       </c>
     </row>
@@ -879,7 +879,7 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>17,5; 17,86</t>
+          <t>17,67; 18,59</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -899,7 +899,7 @@
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>17,01; 17,6</t>
+          <t>16,72; 17,75</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
@@ -919,7 +919,7 @@
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>17,32; 17,66</t>
+          <t>17,36; 18,04</t>
         </is>
       </c>
     </row>
@@ -951,7 +951,7 @@
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>18,06</t>
+          <t>18,09</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
@@ -971,7 +971,7 @@
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>18,25</t>
+          <t>18,28</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
@@ -991,7 +991,7 @@
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>18,16</t>
+          <t>18,19</t>
         </is>
       </c>
     </row>
@@ -1019,7 +1019,7 @@
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>17,82; 18,25</t>
+          <t>17,85; 18,29</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -1039,7 +1039,7 @@
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>18,08; 18,41</t>
+          <t>18,1; 18,43</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
@@ -1059,7 +1059,7 @@
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>18,02; 18,28</t>
+          <t>18,05; 18,31</t>
         </is>
       </c>
     </row>
@@ -1091,7 +1091,7 @@
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>17,56</t>
+          <t>17,79</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
@@ -1111,7 +1111,7 @@
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>17,34</t>
+          <t>17,38</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
@@ -1131,7 +1131,7 @@
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>17,45</t>
+          <t>17,58</t>
         </is>
       </c>
     </row>
@@ -1159,7 +1159,7 @@
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>17,46; 17,71</t>
+          <t>17,59; 18,24</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
@@ -1179,7 +1179,7 @@
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>17,1; 17,46</t>
+          <t>16,94; 17,58</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
@@ -1199,7 +1199,7 @@
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>17,31; 17,54</t>
+          <t>17,36; 17,83</t>
         </is>
       </c>
     </row>

--- a/data/trans_orig/dukeAFECT-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/dukeAFECT-Estudios-trans_orig.xlsx
@@ -724,52 +724,52 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>16,64; 17,05</t>
+          <t>16,65; 17,06</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>17,21; 17,59</t>
+          <t>17,2; 17,59</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>16,57; 16,99</t>
+          <t>16,58; 17,02</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>16,35; 16,93</t>
+          <t>16,36; 16,97</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>16,27; 16,68</t>
+          <t>16,29; 16,68</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>17,08; 17,39</t>
+          <t>17,09; 17,41</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>16,26; 16,67</t>
+          <t>16,26; 16,66</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>16,18; 16,6</t>
+          <t>16,22; 16,6</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>16,51; 16,8</t>
+          <t>16,51; 16,79</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>17,2; 17,45</t>
+          <t>17,2; 17,44</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
@@ -779,7 +779,7 @@
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>16,32; 16,67</t>
+          <t>16,33; 16,67</t>
         </is>
       </c>
     </row>
@@ -864,32 +864,32 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>17,74; 17,99</t>
+          <t>17,74; 17,98</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>17,81; 18,04</t>
+          <t>17,83; 18,04</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>17,06; 17,31</t>
+          <t>17,06; 17,3</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>17,67; 18,59</t>
+          <t>17,66; 18,6</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>17,37; 17,66</t>
+          <t>17,36; 17,67</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>17,44; 17,7</t>
+          <t>17,43; 17,69</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
@@ -899,7 +899,7 @@
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>16,72; 17,75</t>
+          <t>16,72; 17,76</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
@@ -909,17 +909,17 @@
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>17,68; 17,85</t>
+          <t>17,69; 17,85</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>17,07; 17,23</t>
+          <t>17,06; 17,23</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>17,36; 18,04</t>
+          <t>17,33; 18,02</t>
         </is>
       </c>
     </row>
@@ -1004,47 +1004,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>17,58; 18,08</t>
+          <t>17,61; 18,09</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>17,82; 18,3</t>
+          <t>17,82; 18,33</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>17,6; 18,0</t>
+          <t>17,6; 17,99</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>17,85; 18,29</t>
+          <t>17,88; 18,3</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>17,69; 18,21</t>
+          <t>17,68; 18,21</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>18,12; 18,51</t>
+          <t>18,08; 18,49</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>17,49; 17,93</t>
+          <t>17,49; 17,92</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>18,1; 18,43</t>
+          <t>18,11; 18,43</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>17,72; 18,07</t>
+          <t>17,73; 18,07</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
@@ -1054,12 +1054,12 @@
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>17,62; 17,9</t>
+          <t>17,61; 17,91</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>18,05; 18,31</t>
+          <t>18,04; 18,32</t>
         </is>
       </c>
     </row>
@@ -1144,32 +1144,32 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>17,45; 17,65</t>
+          <t>17,43; 17,65</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>17,72; 17,89</t>
+          <t>17,71; 17,9</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>17,11; 17,28</t>
+          <t>17,11; 17,29</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>17,59; 18,24</t>
+          <t>17,57; 18,34</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>17,06; 17,29</t>
+          <t>17,07; 17,28</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>17,45; 17,63</t>
+          <t>17,46; 17,65</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
@@ -1179,12 +1179,12 @@
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>16,94; 17,58</t>
+          <t>16,93; 17,58</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>17,28; 17,44</t>
+          <t>17,28; 17,43</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
@@ -1199,7 +1199,7 @@
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>17,36; 17,83</t>
+          <t>17,35; 17,83</t>
         </is>
       </c>
     </row>
